--- a/biology/Zoologie/Canis_armbrusteri/Canis_armbrusteri.xlsx
+++ b/biology/Zoologie/Canis_armbrusteri/Canis_armbrusteri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Canis armbrusteri est une espèce fossile du genre Canis qui était endémique en Amérique du Nord et a vécu pendant le Pléistocène (Irvingtonien), entre environ 1,8 million d'années et 300 000 ans.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Canis armbrusteri est décrit par J.W. Gidley en 1913[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canis armbrusteri est décrit par J.W. Gidley en 1913,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il aurait été beaucoup plus gros que le loup gris, pesant environ 70 kg. Il était probablement un chasseur solitaire.
 </t>
@@ -573,7 +589,9 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est proposé comme l'ancêtre de l'un des plus célèbres carnivores préhistoriques d'Amérique du Nord, le Canis dirus.
 </t>
